--- a/2021-01-12_13案例分析/2021-01-12_13案例分析.xlsx
+++ b/2021-01-12_13案例分析/2021-01-12_13案例分析.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58E8FE1-BF7F-E741-9D1E-BD016BBDD3BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="3180" windowWidth="20600" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="3180" windowWidth="20595" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,28 +192,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西甲2:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西甲4:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盘口分析：0.25 初始水位：1.00/0.86
-基本面：主强（无开场和滚无法预测）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始盘口：0.5 初始水位：1.00/0.86
-基本面：主强（无开场和滚无法预测）</t>
+    <r>
+      <t>初始盘口：0.5 初始水位：1.00/0.86
+基本面：主强（无开场和滚无法预测）
+即时盘（开场）： 盘口0.5 1.10/0.76 开场滚一：盘口开始变化： 0.25 主渐弱但是主仍强，
+                 滚一：  0.78/1.04 滚二：0.82/1.00 滚三：0.86/0.96 盘口变化：1.25 主强
+                 滚一：0.86/0.96 滚二：1.02/0.8 滚三：1.06/0.76 预测：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5盘口主赢。
+最终比分：2:0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                               </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">西甲2:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不玩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">盘口分析：0.25 初始水位：1.00/0.86
+基本面：主强（无开场和滚无法预测）
+初始盘口：0.25 1.00/0.86 开场盘：0.96/0.9 滚一：0.94/0.88 滚二：0.96/0.86 滚三:1.00/0.82 
+                                 滚四：1.06/0.76 滚五：1.10/0.72
+                         盘口变化： 0 ，滚一：0.76/1.06 滚二：0.86/1.00 滚三：0.86/0.96
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>预测：0.25盘口，客赢。败！ 
+                         预测失误：结果2:0 ，主赢。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+总结：不能受干扰，在自己看好基本面，基本面很重要，防止盘口诱食，盘口和水位符合自己基本面的情况下，才玩。胜率会高。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本面 = 盘口 &gt; 水位（无绝对，看好再下）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -279,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,11 +376,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -316,7 +403,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -358,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,27 +477,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,24 +511,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,16 +686,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="166" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="166" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1">
@@ -680,7 +731,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -689,7 +740,7 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>-5</v>
       </c>
       <c r="E4">
@@ -709,14 +760,14 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
         <v>13</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
       <c r="E5">
         <v>5</v>
       </c>
@@ -767,7 +818,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
@@ -776,7 +827,7 @@
       <c r="C10">
         <v>20</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>-10</v>
       </c>
       <c r="E10">
@@ -796,14 +847,14 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
       <c r="E11">
         <v>7</v>
       </c>
@@ -827,12 +878,12 @@
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="35.25" customHeight="1"/>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="35.25" customHeight="1"/>
-    <row r="15" spans="1:9" s="5" customFormat="1">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:9" s="4" customFormat="1">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1"/>
+    <row r="16" spans="1:9" s="4" customFormat="1"/>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -860,8 +911,8 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
+      <c r="A18" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -869,7 +920,7 @@
       <c r="C18">
         <v>7</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>12</v>
       </c>
       <c r="E18">
@@ -889,14 +940,14 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19">
         <v>19</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <v>3</v>
       </c>
@@ -913,13 +964,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="73.5" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1"/>
-    <row r="22" spans="1:9" s="3" customFormat="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="73.5" customHeight="1"/>
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="41.25" customHeight="1"/>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -947,8 +998,8 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
+      <c r="A24" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -956,7 +1007,7 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>8</v>
       </c>
       <c r="E24">
@@ -976,14 +1027,14 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
       <c r="E25">
         <v>9</v>
       </c>
@@ -1000,15 +1051,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1">
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="54.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1"/>
-    <row r="28" spans="1:9" s="3" customFormat="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="54.75" customHeight="1"/>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="54.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A12:XFD14"/>
+    <mergeCell ref="A1:XFD2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:XFD8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="A26:XFD28"/>
     <mergeCell ref="A15:XFD16"/>
     <mergeCell ref="A18:A19"/>
@@ -1016,13 +1074,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A12:XFD14"/>
-    <mergeCell ref="A1:XFD2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:XFD8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,12 +1082,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1045,12 +1096,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021-01-12_13案例分析/2021-01-12_13案例分析.xlsx
+++ b/2021-01-12_13案例分析/2021-01-12_13案例分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>1月12日案例分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,50 @@
         <scheme val="minor"/>
       </rPr>
       <t>基本面 = 盘口 &gt; 水位（无绝对，看好再下）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴西甲(8:30)
+2021/01/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科林蒂安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗鲁米嫩塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基本面：客强
+初始盘口：0.5 1.03/0.77  滚一：0.98/0.77 滚二：1.00/0.75 滚三：1.02/0.73 滚四：1.03/0.72 预测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客赢
+败，基本面判断失误！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,11 +407,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -376,14 +423,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,6 +450,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>189352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>648390</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1233573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="第一场实战.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="11808704"/>
+          <a:ext cx="2851762" cy="1044221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="166" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="166" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -698,12 +791,12 @@
     <col min="2" max="2" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1"/>
+    <row r="2" spans="1:9" s="4" customFormat="1"/>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -784,13 +877,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="32.25" customHeight="1"/>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="32.25" customHeight="1"/>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="32.25" customHeight="1"/>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="32.25" customHeight="1"/>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -871,19 +964,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="35.25" customHeight="1"/>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="35.25" customHeight="1"/>
-    <row r="15" spans="1:9" s="4" customFormat="1">
-      <c r="A15" s="4" t="s">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="35.25" customHeight="1"/>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="35.25" customHeight="1"/>
+    <row r="15" spans="1:9" s="6" customFormat="1">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1"/>
+    <row r="16" spans="1:9" s="6" customFormat="1"/>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -911,7 +1004,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
@@ -920,7 +1013,7 @@
       <c r="C18">
         <v>7</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>12</v>
       </c>
       <c r="E18">
@@ -940,14 +1033,14 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19">
         <v>19</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="6"/>
       <c r="E19">
         <v>3</v>
       </c>
@@ -964,13 +1057,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="73.5" customHeight="1"/>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="41.25" customHeight="1"/>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="73.5" customHeight="1"/>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="41.25" customHeight="1"/>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -998,7 +1091,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
@@ -1007,7 +1100,7 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>8</v>
       </c>
       <c r="E24">
@@ -1027,14 +1120,14 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="6"/>
       <c r="E25">
         <v>9</v>
       </c>
@@ -1051,15 +1144,112 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="54.75" customHeight="1"/>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="54.75" customHeight="1"/>
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="54.75" customHeight="1"/>
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="54.75" customHeight="1"/>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1"/>
+    <row r="34" s="4" customFormat="1" ht="98.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A32:XFD34"/>
+    <mergeCell ref="A26:XFD28"/>
+    <mergeCell ref="A15:XFD16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:XFD22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="A12:XFD14"/>
     <mergeCell ref="A1:XFD2"/>
     <mergeCell ref="A4:A5"/>
@@ -1067,17 +1257,11 @@
     <mergeCell ref="A6:XFD8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A26:XFD28"/>
-    <mergeCell ref="A15:XFD16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:XFD22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
